--- a/coverage/coverage_process/Kratos_jaccard_similarity_matrix-v6.xlsx
+++ b/coverage/coverage_process/Kratos_jaccard_similarity_matrix-v6.xlsx
@@ -436,5065 +436,5065 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>10805</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>11307</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>9079</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11231</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10649</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5458</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>10805</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3442</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>11231</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>10649</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>9079</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>4623</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>MeshingApplication_test_refine</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F2" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G2" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>test_CompressiblePotentialFlowApplication</t>
+          <t>MeshingApplication_test_MeshingApplication</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F3" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G3" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>MeshingApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F4" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G4" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>test_ContactStructuralMechanicsApplication</t>
+          <t>MeshingApplication_Kratos_Execute_Meshing_Test</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06039598797910564</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08247168294449618</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07215039169986559</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2453270539297571</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05860019808517663</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06241808886008497</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06589373592459755</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07853910795087266</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>test_double_curvature_integration</t>
+          <t>MeshingApplication_test_remesh_sphere</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06039598797910564</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08247168294449618</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07215039169986559</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2453270539297571</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05860019808517663</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06241808886008497</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06589373592459755</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07853910795087266</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>MeshingApplication_NightlyTests</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F7" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G7" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NightlyTests</t>
+          <t>MeshingApplication_SmallTests</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F8" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G8" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I8" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>test_process_factory</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06039598797910564</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08247168294449618</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07215039169986559</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2453270539297571</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05860019808517663</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06241808886008497</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06589373592459755</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07853910795087266</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>test_mortar_mapper</t>
+          <t>StructuralMechanicsApplication_test_patch_test_formfinding</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05950148852956628</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08110668100074106</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07116073282125804</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2642818081574473</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05776023176405985</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06148200863925779</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06488408552331214</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0773289413273672</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>StructuralMechanicsApplication_restart_tests</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06039598797910564</v>
+        <v>0.1520399151017992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08247168294449618</v>
+        <v>0.1921854416687817</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07215039169986559</v>
+        <v>0.1397897881407124</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2453270539297571</v>
+        <v>0.1599005947627505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05860019808517663</v>
+        <v>0.130040846261192</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06241808886008497</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06589373592459755</v>
+        <v>0.1469453558094807</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07853910795087266</v>
+        <v>0.2265550902484934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>test_dynamic_search</t>
+          <t>StructuralMechanicsApplication_test_StructuralMechanicsApplication_mpi</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06039598797910564</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08247168294449618</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07215039169986559</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2453270539297571</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05860019808517663</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06241808886008497</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06589373592459755</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07853910795087266</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>contact_structural_mechanics_test_factory</t>
+          <t>StructuralMechanicsApplication_test_patch_test_small_strain</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>StructuralMechanicsApplication_test_patch_test_cr_beam</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1539688701791845</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2591807084050032</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1263227448960753</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7807352350341502</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1421600102735328</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1625384764878098</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1778945480393004</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2145238352318739</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>shallow_water_test_factory</t>
+          <t>StructuralMechanicsApplication_structural_response_function_test_factory</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1539688701791845</v>
+        <v>0.1520399151017992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2591807084050032</v>
+        <v>0.1921854416687817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1263227448960753</v>
+        <v>0.1397897881407124</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7807352350341502</v>
+        <v>0.1599005947627505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1421600102735328</v>
+        <v>0.130040846261192</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1625384764878098</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1778945480393004</v>
+        <v>0.1469453558094807</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2145238352318739</v>
+        <v>0.2265550902484934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test_ShallowWaterApplication</t>
+          <t>StructuralMechanicsApplication_test_quadratic_elements</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1334871231667394</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2138346589539648</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1124914061858166</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6081666000312896</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1245679477088395</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1402674077237904</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1522664378540865</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3435926279577769</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MainKratos</t>
+          <t>StructuralMechanicsApplication_structural_mechanics_test_factory_mpi</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_line</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>StructuralMechanicsApplication_test_patch_test_truss</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>test_ConstitutiveModelsApplication</t>
+          <t>StructuralMechanicsApplication_test_constitutive_law</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>StructuralMechanicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>assign_materials_process</t>
+          <t>StructuralMechanicsApplication_test_harmonic_analysis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1520399151017992</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1921854416687817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1397897881407124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1599005947627505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.130040846261192</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1643637745889955</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1469453558094807</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2265550902484934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>StructuralMechanicsApplication_test_nodal_damping</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>StructuralMechanicsApplication_test_postprocess_eigenvalues_process</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_point</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>StructuralMechanicsApplication_structural_mechanics_test_factory</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>StructuralMechanicsApplication_test_dynamic_schemes</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_model_process</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells_stress</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>example_constitutive_model_call</t>
+          <t>StructuralMechanicsApplication_test_StructuralMechanicsApplication</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1520399151017992</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1921854416687817</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1397897881407124</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1599005947627505</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.130040846261192</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1643637745889955</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1469453558094807</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2265550902484934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>test_modified_cam_clay</t>
+          <t>StructuralMechanicsApplication_test_patch_test_small_strain_bbar</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>fluid_element_test</t>
+          <t>StructuralMechanicsApplication_test_patch_test_shells_orthotropic</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C31" t="n">
-        <v>0.215555601835461</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>embedded_couette_imposed_test</t>
+          <t>StructuralMechanicsApplication_test_spring_damper_element</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1520399151017992</v>
       </c>
       <c r="C32" t="n">
-        <v>0.215555601835461</v>
+        <v>0.1921854416687817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1397897881407124</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1599005947627505</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.130040846261192</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1411564995973797</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1469453558094807</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2265550902484934</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>volume_source_test</t>
+          <t>StructuralMechanicsApplication_test_mass_calculation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1372612583407624</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2217928571428572</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1150969020539431</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5476846273024617</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1278388995078488</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1443505449447266</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1569174011067842</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3557185128007204</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>test_FluidDynamicsApplication</t>
+          <t>StructuralMechanicsApplication_test_multipoint_contstraints</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1327130827256201</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2121796054474761</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1119554553434655</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6022809433637459</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1238963009062974</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1394301559493998</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1512975133816654</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3410699214438745</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>time_integrated_fluid_element_test</t>
+          <t>StructuralMechanicsApplication_test_loading_conditions_surface</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215555601835461</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>fluid_analysis_test</t>
+          <t>StructuralMechanicsApplication_test_patch_test_large_strain</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1566340822043103</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215555601835461</v>
+        <v>0.1998454220418115</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1448346884085595</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1661825276392803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1343820887038626</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.9282782482841281</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1524140884901753</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2375480978863704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>darcy_channel_test</t>
+          <t>AdjointFluidApplication_test_vms_sensitivity_2d</t>
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0.1130609371333212</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3462217770103732</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.1343093402700674</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.215555601835461</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1130609371333212</v>
-      </c>
       <c r="E37" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F37" t="n">
         <v>0.1252814900040318</v>
       </c>
       <c r="G37" t="n">
+        <v>0.6143876932802992</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.1411564995973797</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.1532745671187585</v>
-      </c>
       <c r="I37" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>embedded_couette_test</t>
+          <t>AdjointFluidApplication_test_AdjointFluidApplication</t>
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0.1130609371333212</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3462217770103732</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.1343093402700674</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.215555601835461</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1130609371333212</v>
-      </c>
       <c r="E38" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F38" t="n">
         <v>0.1252814900040318</v>
       </c>
       <c r="G38" t="n">
+        <v>0.6143876932802992</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.1411564995973797</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.1532745671187585</v>
-      </c>
       <c r="I38" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>manufactured_solution_test</t>
+          <t>AdjointFluidApplication_test_MainKratosMPI</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C39" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>navier_stokes_wall_condition_test</t>
+          <t>AdjointFluidApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>embedded_reservoir_test</t>
+          <t>AdjointFluidApplication_test_vms_adjoint_element_2d</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1157120364357704</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215555601835461</v>
+        <v>0.3586839266450917</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1381603994213177</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1580406381786546</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1286154156781586</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.5535151968545033</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1453249983195537</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.223744226431953</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>artificial_compressibility_test</t>
+          <t>AdjointFluidApplication_mpi_test_vms_sensitivity_2d</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FSI_problem_emulator_test</t>
+          <t>AdjointFluidApplication_test_MainKratos</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1387284496850548</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2242311774772368</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1510598028316535</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9841317531853335</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291260466809595</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1457887914344876</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H43" t="n">
-        <v>0.158566853009656</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I43" t="n">
-        <v>0.190572051669183</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_spring_MPI_test</t>
+          <t>AdjointFluidApplication_test_input_output</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1598959514272038</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2730359514782593</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1301918532462851</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7078840482946642</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1471837701933358</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1690119731207675</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1854010758122244</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2237227304714989</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_spring_test</t>
+          <t>IGAStructuralMechanicsApplication_test_IGAStructuralMechanicsApplication</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1598959514272038</v>
+        <v>0.1424710575211465</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2730359514782593</v>
+        <v>0.1765669238883029</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1301918532462851</v>
+        <v>0.1293901781993027</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7078840482946642</v>
+        <v>0.1470965478683169</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1471837701933358</v>
+        <v>0.121025266720066</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1690119731207675</v>
+        <v>0.7502353166951483</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1854010758122244</v>
+        <v>0.1357210769921953</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2237227304714989</v>
+        <v>0.2047011054057439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>variable_redistribution_test</t>
+          <t>IGAStructuralMechanicsApplication_KratosExecuteIGATest</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1598959514272038</v>
+        <v>0.1424710575211465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2730359514782593</v>
+        <v>0.1765669238883029</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1301918532462851</v>
+        <v>0.1293901781993027</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7078840482946642</v>
+        <v>0.1470965478683169</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1471837701933358</v>
+        <v>0.121025266720066</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1690119731207675</v>
+        <v>0.7502353166951483</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1854010758122244</v>
+        <v>0.1357210769921953</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2237227304714989</v>
+        <v>0.2047011054057439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>test_FSIApplication</t>
+          <t>IGAStructuralMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1211618217791644</v>
+        <v>0.1424710575211465</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1879996852852708</v>
+        <v>0.1765669238883029</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1345902068604347</v>
+        <v>0.1293901781993027</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7584039378451617</v>
+        <v>0.1470965478683169</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1138223332843353</v>
+        <v>0.121025266720066</v>
       </c>
       <c r="G47" t="n">
-        <v>0.126823103460054</v>
+        <v>0.7502353166951483</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1369885383602609</v>
+        <v>0.1357210769921953</v>
       </c>
       <c r="I47" t="n">
-        <v>0.303894977300986</v>
+        <v>0.2047011054057439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>convergence_accelerator_test</t>
+          <t>IGAStructuralMechanicsApplication_ImportModelPart</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1598959514272038</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2730359514782593</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1301918532462851</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7078840482946642</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1471837701933358</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1690119731207675</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1854010758122244</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2237227304714989</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>test_mpi_FSIApplication</t>
+          <t>StabilizedCFDApplication_generalTests</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1598959514272038</v>
+        <v>0.1160954226075156</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2730359514782593</v>
+        <v>0.3476687884228279</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1301918532462851</v>
+        <v>0.1387052717836657</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7078840482946642</v>
+        <v>0.1587416358970408</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1471837701933358</v>
+        <v>0.1290814723204963</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1690119731207675</v>
+        <v>0.5575084771008753</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1854010758122244</v>
+        <v>0.1459449421509927</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2237227304714989</v>
+        <v>0.2250266387352581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>non_conformant_one_side_map_test</t>
+          <t>StabilizedCFDApplication_test_StabilizedCFDApplication</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1257323074037698</v>
+        <v>0.1160954226075156</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1971177642683995</v>
+        <v>0.3476687884228279</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1389203297631517</v>
+        <v>0.1387052717836657</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7119467184681559</v>
+        <v>0.1587416358970408</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1178287996237152</v>
+        <v>0.1290814723204963</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1317303354840672</v>
+        <v>0.5575084771008753</v>
       </c>
       <c r="H50" t="n">
-        <v>0.142542322479237</v>
+        <v>0.1459449421509927</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3179485938331962</v>
+        <v>0.2250266387352581</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>mok_benchmark_test</t>
+          <t>SolidMechanicsApplication_CoreTests</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1211618217791644</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1879996852852708</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1345902068604347</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7584039378451617</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1138223332843353</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G51" t="n">
-        <v>0.126823103460054</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1369885383602609</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I51" t="n">
-        <v>0.303894977300986</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>test_eigen_direct_solver</t>
+          <t>SolidMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B52" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E52" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F52" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G52" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I52" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>test_EigenSolverApplication</t>
+          <t>SolidMechanicsApplication_materials</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>SolidMechanicsApplication_test_SolidMechanicsApplication</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1387052717836657</v>
+        <v>0.1125411372450787</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2250266387352581</v>
+        <v>0.1827693050581466</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1160954226075156</v>
+        <v>0.1335474290152123</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5575084771008753</v>
+        <v>0.1521987030743832</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1290814723204963</v>
+        <v>0.1246466254253922</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1459449421509927</v>
+        <v>0.6084964200477327</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1587416358970408</v>
+        <v>0.1401904474002418</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3476687884228279</v>
+        <v>0.2133080474934037</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>test_StabilizedCFDApplication</t>
+          <t>SolidMechanicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1387052717836657</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2250266387352581</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1160954226075156</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5575084771008753</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1290814723204963</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1459449421509927</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1587416358970408</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3476687884228279</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>SolidMechanicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>SolidMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>test_ShapeOptimizationApplication</t>
+          <t>LagrangianMPMApplication_generalTests</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1378682940829268</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2224012604289755</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D58" t="n">
-        <v>0.150279904032903</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E58" t="n">
-        <v>0.971750357103615</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1283884330759331</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1448580413497781</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1575079534648932</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1893656272316115</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>shape_optimization_test_factory</t>
+          <t>LagrangianMPMApplication_test_LagrangianMPMApplication</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C59" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E59" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F59" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G59" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I59" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>impact01.gid_materials</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.118763730503824</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.1964676364804904</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.1426281602205919</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1634505827946114</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1324952898983241</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.5827720763614099</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1500161748734894</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2327223659057686</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>DEM_application_test_particle_creator_destructor</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1245986515649598</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.210053112778776</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.1513934026165732</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1744742869040183</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1400961411826682</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.6423915237134208</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1596055964002066</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2525172015550531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>DEM_application_test_wall_creator_destructor</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1245986515649598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.210053112778776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.1513934026165732</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1744742869040183</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1400961411826682</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.6423915237134208</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1596055964002066</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2525172015550531</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>DEM_application_test_analytics</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1245986515649598</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.210053112778776</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.1513934026165732</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1744742869040183</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1400961411826682</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.6423915237134208</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1596055964002066</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2525172015550531</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>run_test</t>
+          <t>DEM_application_test_DEMApplication</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1601481182422629</v>
+        <v>0.1245986515649598</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2736489464868201</v>
+        <v>0.210053112778776</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1303436798203401</v>
+        <v>0.1513934026165732</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7098206813439414</v>
+        <v>0.1744742869040183</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1473967528145168</v>
+        <v>0.1400961411826682</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1692725504148741</v>
+        <v>0.6423915237134208</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1596055964002066</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2241256547455393</v>
+        <v>0.2525172015550531</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>ContactStructuralMechanicsApplication_contact_structural_mechanics_test_factory</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1293901781993027</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2047011054057439</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1424710575211465</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7502353166951483</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F65" t="n">
-        <v>0.121025266720066</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1357210769921953</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1470965478683169</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1765669238883029</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>test_IGAStructuralMechanicsApplication</t>
+          <t>ContactStructuralMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1293901781993027</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2047011054057439</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1424710575211465</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7502353166951483</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F66" t="n">
-        <v>0.121025266720066</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1357210769921953</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1470965478683169</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1765669238883029</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>ImportModelPart</t>
+          <t>ContactStructuralMechanicsApplication_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.16131758903831</v>
+        <v>0.07215039169986559</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.07853910795087266</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.06039598797910564</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.06589373592459755</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.05860019808517663</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.2453270539297571</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.06241808886008497</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.08247168294449618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>KratosExecuteIGATest</t>
+          <t>ContactStructuralMechanicsApplication_test_dynamic_search</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1293901781993027</v>
+        <v>0.07215039169986559</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2047011054057439</v>
+        <v>0.07853910795087266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1424710575211465</v>
+        <v>0.06039598797910564</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7502353166951483</v>
+        <v>0.06589373592459755</v>
       </c>
       <c r="F68" t="n">
-        <v>0.121025266720066</v>
+        <v>0.05860019808517663</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1357210769921953</v>
+        <v>0.2453270539297571</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1470965478683169</v>
+        <v>0.06241808886008497</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1765669238883029</v>
+        <v>0.08247168294449618</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>ContactStructuralMechanicsApplication_test_mortar_mapper</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1335474290152123</v>
+        <v>0.07116073282125804</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2133080474934037</v>
+        <v>0.0773289413273672</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1125411372450787</v>
+        <v>0.05950148852956628</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6084964200477327</v>
+        <v>0.06488408552331214</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1246466254253922</v>
+        <v>0.05776023176405985</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1401904474002418</v>
+        <v>0.2642818081574473</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1521987030743832</v>
+        <v>0.06148200863925779</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1827693050581466</v>
+        <v>0.08110668100074106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>ContactStructuralMechanicsApplication_test_double_curvature_integration</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.137731907431862</v>
+        <v>0.07215039169986559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2221586111150868</v>
+        <v>0.07853910795087266</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1154266982657423</v>
+        <v>0.06039598797910564</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6407376607235874</v>
+        <v>0.06589373592459755</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1282723828474379</v>
+        <v>0.05860019808517663</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1447135986982519</v>
+        <v>0.2453270539297571</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1573686248284115</v>
+        <v>0.06241808886008497</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1890569156938886</v>
+        <v>0.08247168294449618</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>test_ContactMechanicsApplication</t>
+          <t>ContactStructuralMechanicsApplication_test_process_factory</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1335474290152123</v>
+        <v>0.07215039169986559</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2133080474934037</v>
+        <v>0.07853910795087266</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1125411372450787</v>
+        <v>0.06039598797910564</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6084964200477327</v>
+        <v>0.06589373592459755</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1246466254253922</v>
+        <v>0.05860019808517663</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1401904474002418</v>
+        <v>0.2453270539297571</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1521987030743832</v>
+        <v>0.06241808886008497</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1827693050581466</v>
+        <v>0.08247168294449618</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>ContactStructuralMechanicsApplication_NightlyTests</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.137731907431862</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2221586111150868</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1154266982657423</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6407376607235874</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1282723828474379</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1447135986982519</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1573686248284115</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1890569156938886</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>ContactStructuralMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>ContactStructuralMechanicsApplication_test_ContactStructuralMechanicsApplication</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.137731907431862</v>
+        <v>0.07215039169986559</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2221586111150868</v>
+        <v>0.07853910795087266</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1154266982657423</v>
+        <v>0.06039598797910564</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6407376607235874</v>
+        <v>0.06589373592459755</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1282723828474379</v>
+        <v>0.05860019808517663</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1447135986982519</v>
+        <v>0.2453270539297571</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1573686248284115</v>
+        <v>0.06241808886008497</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1890569156938886</v>
+        <v>0.08247168294449618</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>test_HDF5Application</t>
+          <t>ContactMechanicsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1154266982657423</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1890569156938886</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.137731907431862</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1573686248284115</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1282723828474379</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6407376607235874</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1447135986982519</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2221586111150868</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>test_hdf5_model_part_io_mpi</t>
+          <t>ContactMechanicsApplication_materials</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>test_hdf5_model_part_io</t>
+          <t>ContactMechanicsApplication_test_ContactMechanicsApplication</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1125411372450787</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1827693050581466</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1335474290152123</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1521987030743832</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1246466254253922</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6084964200477327</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1401904474002418</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2133080474934037</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>ContactMechanicsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1154266982657423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1890569156938886</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.137731907431862</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1573686248284115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1282723828474379</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6407376607235874</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1447135986982519</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2221586111150868</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>ContactMechanicsApplication_NightTests</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1154266982657423</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.1890569156938886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.137731907431862</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1573686248284115</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1282723828474379</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6407376607235874</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1447135986982519</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2221586111150868</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>ContactMechanicsApplication_SmallTests</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1426281602205919</v>
+        <v>0.1125411372450787</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2327223659057686</v>
+        <v>0.1827693050581466</v>
       </c>
       <c r="D80" t="n">
-        <v>0.118763730503824</v>
+        <v>0.1335474290152123</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5827720763614099</v>
+        <v>0.1521987030743832</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1324952898983241</v>
+        <v>0.1246466254253922</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1500161748734894</v>
+        <v>0.6084964200477327</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1634505827946114</v>
+        <v>0.1401904474002418</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1964676364804904</v>
+        <v>0.2133080474934037</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>test_LagrangianMPMApplication</t>
+          <t>EigenSolversApplication_test_eigen_direct_solver</t>
         </is>
       </c>
       <c r="B81" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D81" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E81" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F81" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G81" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H81" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I81" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>test_input_output</t>
+          <t>EigenSolversApplication_test_EigenSolverApplication</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C82" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>test_vms_adjoint_element_2d</t>
+          <t>FSIapplication_convergence_accelerator_test</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1381603994213177</v>
+        <v>0.1301918532462851</v>
       </c>
       <c r="C83" t="n">
-        <v>0.223744226431953</v>
+        <v>0.2237227304714989</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1157120364357704</v>
+        <v>0.1598959514272038</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5535151968545033</v>
+        <v>0.1854010758122244</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1286154156781586</v>
+        <v>0.1471837701933358</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1453249983195537</v>
+        <v>0.7078840482946642</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1580406381786546</v>
+        <v>0.1690119731207675</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3586839266450917</v>
+        <v>0.2730359514782593</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>test_MainKratos</t>
+          <t>FSIapplication_convergence_accelerator_spring_MPI_test</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1301918532462851</v>
       </c>
       <c r="C84" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2237227304714989</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1598959514272038</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1854010758122244</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1471837701933358</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7078840482946642</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1690119731207675</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2730359514782593</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>test_MainKratosMPI</t>
+          <t>FSIapplication_convergence_accelerator_spring_test</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1301918532462851</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2237227304714989</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1598959514272038</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1854010758122244</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1471837701933358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7078840482946642</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1690119731207675</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2730359514782593</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>test_AdjointFluidApplication</t>
+          <t>FSIapplication_test_mpi_FSIApplication</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1301918532462851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.215555601835461</v>
+        <v>0.2237227304714989</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1598959514272038</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1854010758122244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1471837701933358</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7078840482946642</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.1690119731207675</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.2730359514782593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>test_vms_sensitivity_2d</t>
+          <t>FSIapplication_mok_benchmark_test</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1343093402700674</v>
+        <v>0.1345902068604347</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215555601835461</v>
+        <v>0.303894977300986</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1130609371333212</v>
+        <v>0.1211618217791644</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6143876932802992</v>
+        <v>0.1369885383602609</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1252814900040318</v>
+        <v>0.1138223332843353</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1411564995973797</v>
+        <v>0.7584039378451617</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1532745671187585</v>
+        <v>0.126823103460054</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3462217770103732</v>
+        <v>0.1879996852852708</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>FSIapplication_non_conformant_one_side_map_test</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1389203297631517</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3179485938331962</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1257323074037698</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.142542322479237</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1178287996237152</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7119467184681559</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1317303354840672</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.1971177642683995</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_vms_sensitivity_2d</t>
+          <t>FSIapplication_test_FSIApplication</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1345902068604347</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.303894977300986</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1211618217791644</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1369885383602609</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1138223332843353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7584039378451617</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.126823103460054</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.1879996852852708</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>test_ConvectionDiffusionApplication</t>
+          <t>FSIapplication_FSI_problem_emulator_test</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.151584980001194</v>
+        <v>0.1510598028316535</v>
       </c>
       <c r="C90" t="n">
-        <v>0.253588086816589</v>
+        <v>0.190572051669183</v>
       </c>
       <c r="D90" t="n">
-        <v>0.124764357974414</v>
+        <v>0.1387284496850548</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7585040650406504</v>
+        <v>0.158566853009656</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1401289655248303</v>
+        <v>0.1291260466809595</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1599501735907698</v>
+        <v>0.9841317531853335</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1748581798716601</v>
+        <v>0.1457887914344876</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2108839929190397</v>
+        <v>0.2242311774772368</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>convection_diffusion_test_factory</t>
+          <t>FSIapplication_variable_redistribution_test</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1301918532462851</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2237227304714989</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1598959514272038</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1854010758122244</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1471837701933358</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7078840482946642</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1690119731207675</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2730359514782593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>source_term_test</t>
+          <t>opt_process_eigenfrequency_test_run_test</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1589302817650852</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2707655539952377</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1295726086913196</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7005527173434335</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1463615097679712</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1679706728153579</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1841781335313817</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2223053264364602</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>thermal_coupling_test</t>
+          <t>ShapeOptimizationApplication_test_ShapeOptimizationApplication</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1575508633901481</v>
+        <v>0.150279904032903</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2674454667631552</v>
+        <v>0.1893656272316115</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1286795626576955</v>
+        <v>0.1378682940829268</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6897452574525745</v>
+        <v>0.1575079534648932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1451961393527202</v>
+        <v>0.1283884330759331</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1664613015017328</v>
+        <v>0.971750357103615</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1824112663779249</v>
+        <v>0.1448580413497781</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2201420226461061</v>
+        <v>0.2224012604289755</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>ShapeOptimizationApplication_shape_optimization_test_factory</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1589302817650852</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2707655539952377</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1295726086913196</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7005527173434335</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1463615097679712</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1679706728153579</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1841781335313817</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2223053264364602</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>opt_process_solid_test_run_test</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1603201858491995</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2739249755124732</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D95" t="n">
-        <v>0.130440670485209</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E95" t="n">
-        <v>0.710691542844375</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1475927341813211</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1694039406292464</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1858660726058865</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2242830434935977</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>generalTests</t>
+          <t>algorithm_steepest_descent_test_run_test</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>KratosExecuteMapperTests</t>
+          <t>algorithm_penalized_projection_test_run_test</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1603201858491995</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2739249755124732</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.130440670485209</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E97" t="n">
-        <v>0.710691542844375</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1475927341813211</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1694039406292464</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1858660726058865</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2242830434935977</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>test_MappingApplication</t>
+          <t>opt_process_vertex_morphing_test_run_test</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1603201858491995</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2739249755124732</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D98" t="n">
-        <v>0.130440670485209</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E98" t="n">
-        <v>0.710691542844375</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1475927341813211</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1694039406292464</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1858660726058865</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2242830434935977</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NearestElementMapperTest2D</t>
+          <t>opt_process_weighted_eigenfrequency_test_run_test</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1603201858491995</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2739249755124732</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D99" t="n">
-        <v>0.130440670485209</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E99" t="n">
-        <v>0.710691542844375</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1475927341813211</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1694039406292464</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1858660726058865</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2242830434935977</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>NearestNeighborMapperTest</t>
+          <t>opt_process_shell_test_run_test</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1603201858491995</v>
+        <v>0.1303436798203401</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2739249755124732</v>
+        <v>0.2241256547455393</v>
       </c>
       <c r="D100" t="n">
-        <v>0.130440670485209</v>
+        <v>0.1601481182422629</v>
       </c>
       <c r="E100" t="n">
-        <v>0.710691542844375</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1475927341813211</v>
+        <v>0.1473967528145168</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1694039406292464</v>
+        <v>0.7098206813439414</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1858660726058865</v>
+        <v>0.1692725504148741</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2242830434935977</v>
+        <v>0.2736489464868201</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_structural_mesh_motion_3d</t>
+          <t>HDF5Application_test_HDF5Application</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>MainKratos</t>
+          <t>HDF5Application_test_hdf5_model_part_io_mpi</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1333924951952866</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2136277012198058</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1124402017259932</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E102" t="n">
-        <v>0.607453836737883</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1244912815552005</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1401712634052784</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1521497195030548</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3432807537997099</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>test_structural_mesh_motion_2d</t>
+          <t>HDF5Application_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>test_laplacian_mesh_motion_2d</t>
+          <t>HDF5Application_test_hdf5_model_part_io</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>test_MeshMovingApplication_mpi</t>
+          <t>CompressiblePotentialFlowApplication_test_CompressiblePotentialFlowApplication</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_laplacian_mesh_motion_2d</t>
+          <t>CompressiblePotentialFlowApplication_generalTests</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>test_MeshMovingApplication</t>
+          <t>MappingApplication_generalTests</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_structural_mesh_motion_2d</t>
+          <t>MappingApplication_KratosExecuteMapperTests</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.130440670485209</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2242830434935977</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.1603201858491995</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1858660726058865</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1475927341813211</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.710691542844375</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1694039406292464</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2739249755124732</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>test_structural_mesh_motion_3d</t>
+          <t>MappingApplication_NearestNeighborMapperTest</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.130440670485209</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2242830434935977</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.1603201858491995</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1858660726058865</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1475927341813211</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.710691542844375</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1694039406292464</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2739249755124732</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>mpi_test_laplacian_mesh_motion_3d</t>
+          <t>MappingApplication_SmallTests</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.130440670485209</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2242830434935977</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.1603201858491995</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1858660726058865</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1475927341813211</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.710691542844375</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1694039406292464</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2739249755124732</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>test_laplacian_mesh_motion_3d</t>
+          <t>MappingApplication_test_MappingApplication</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.130440670485209</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2242830434935977</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.1603201858491995</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1858660726058865</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1475927341813211</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.710691542844375</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1694039406292464</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2739249755124732</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>mesh_moving_test_case</t>
+          <t>MappingApplication_NearestElementMapperTest2D</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1537678762879104</v>
+        <v>0.130440670485209</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2586876447940799</v>
+        <v>0.2242830434935977</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1262150999985441</v>
+        <v>0.1603201858491995</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7788649924303144</v>
+        <v>0.1858660726058865</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1419904536735513</v>
+        <v>0.1475927341813211</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1623399793420764</v>
+        <v>0.710691542844375</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1776449753593293</v>
+        <v>0.1694039406292464</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2142861955811305</v>
+        <v>0.2739249755124732</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>impose_ale_rectangle_test_motion_process</t>
+          <t>trilinos_application_test_trilinos_linear_solvers</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.159911811023622</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2731248075315648</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1302238245455911</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7082554100988512</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1471967073812235</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1690525547254925</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1854470171162688</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2238537018005716</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>trilinos_application_test_mpi_communicator</t>
         </is>
       </c>
       <c r="B114" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D114" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C114" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E114" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F114" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G114" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H114" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I114" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>TestFactory</t>
+          <t>trilinos_application_test_trilinos_matrix</t>
         </is>
       </c>
       <c r="B115" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D115" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C115" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E115" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F115" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G115" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H115" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I115" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>trilinos_application_test_TrilinosApplication</t>
         </is>
       </c>
       <c r="B116" t="n">
+        <v>0.1311065391907701</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.2259589411129119</v>
+      </c>
+      <c r="D116" t="n">
         <v>0.16131758903831</v>
       </c>
-      <c r="C116" t="n">
-        <v>0.2764979421668716</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.1311065391907701</v>
-      </c>
       <c r="E116" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F116" t="n">
         <v>0.1483819081420354</v>
       </c>
       <c r="G116" t="n">
+        <v>0.7192754327841789</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.1705690019275935</v>
       </c>
-      <c r="H116" t="n">
-        <v>0.1872273184920013</v>
-      </c>
       <c r="I116" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>MeshMovingApplication_test_structural_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1557034476841808</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2628143256286513</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1274491555311729</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6755976698040131</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1436502389755614</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1643637745889955</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1799544572146355</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2169658090493414</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>NightTests</t>
+          <t>MeshMovingApplication_mpi_test_laplacian_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>CoreTests</t>
+          <t>MeshMovingApplication_impose_ale_rectangle_test_motion_process</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1302238245455911</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2238537018005716</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.159911811023622</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1854470171162688</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1471967073812235</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7082554100988512</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1690525547254925</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2731248075315648</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>test_SolidMechanicsApplication</t>
+          <t>MeshMovingApplication_test_laplacian_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1335474290152123</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2133080474934037</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1125411372450787</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6084964200477327</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1246466254253922</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1401904474002418</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1521987030743832</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1827693050581466</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>test_wall_creator_destructor</t>
+          <t>MeshMovingApplication_mpi_test_structural_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1513934026165732</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2525172015550531</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1245986515649598</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6423915237134208</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1400961411826682</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1596055964002066</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1744742869040183</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I121" t="n">
-        <v>0.210053112778776</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>test_analytics</t>
+          <t>MeshMovingApplication_test_MeshMovingApplication</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1513934026165732</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2525172015550531</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1245986515649598</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6423915237134208</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1400961411826682</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1596055964002066</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1744742869040183</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I122" t="n">
-        <v>0.210053112778776</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>test_DEMApplication</t>
+          <t>MeshMovingApplication_test_structural_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1513934026165732</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2525172015550531</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1245986515649598</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6423915237134208</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1400961411826682</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1596055964002066</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1744742869040183</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I123" t="n">
-        <v>0.210053112778776</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>test_particle_creator_destructor</t>
+          <t>test_example_MainKratos</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1513934026165732</v>
+        <v>0.1124402017259932</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2525172015550531</v>
+        <v>0.3432807537997099</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1245986515649598</v>
+        <v>0.1333924951952866</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6423915237134208</v>
+        <v>0.1521497195030548</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1400961411826682</v>
+        <v>0.1244912815552005</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1596055964002066</v>
+        <v>0.607453836737883</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1744742869040183</v>
+        <v>0.1401712634052784</v>
       </c>
       <c r="I124" t="n">
-        <v>0.210053112778776</v>
+        <v>0.2136277012198058</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>SmallTests</t>
+          <t>MeshMovingApplication_mpi_test_structural_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Kratos_Execute_Meshing_Test</t>
+          <t>MeshMovingApplication_test_MeshMovingApplication_mpi</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>test_MeshingApplication</t>
+          <t>MeshMovingApplication_mpi_test_laplacian_mesh_motion_2d</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>ValidationTests</t>
+          <t>MeshMovingApplication_test_laplacian_mesh_motion_3d</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NightlyTests</t>
+          <t>MeshMovingApplication_mesh_moving_test_case</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1262150999985441</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2142861955811305</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1537678762879104</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1776449753593293</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1419904536735513</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.7788649924303144</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1623399793420764</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2586876447940799</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>test_remesh_sphere</t>
+          <t>cam_clay_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>test_refine</t>
+          <t>cam_clay_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>structural_response_function_test_factory</t>
+          <t>begin_J2_SS_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1397897881407124</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2265550902484934</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1520399151017992</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F132" t="n">
-        <v>0.130040846261192</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1469453558094807</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1599005947627505</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1921854416687817</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells_orthotropic</t>
+          <t>begin_J2_SS_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_point</t>
+          <t>begin_J2_SS_example_assign_materials_process</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_small_strain_bbar</t>
+          <t>real_cam_clay_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>test_harmonic_analysis</t>
+          <t>real_cam_clay_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1397897881407124</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2265550902484934</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1520399151017992</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F136" t="n">
-        <v>0.130040846261192</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1469453558094807</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1599005947627505</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1921854416687817</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>test_nodal_damping</t>
+          <t>clw_test_example_example_constitutive_model_call</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>test_StructuralMechanicsApplication_mpi</t>
+          <t>clw_test_example_test_constitutive_model_process</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_truss</t>
+          <t>ConstitutiveModelsApplication_ValidationTests</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_cr_beam</t>
+          <t>validation_MainKratos</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>test_StructuralMechanicsApplication</t>
+          <t>ConstitutiveModelsApplication_test_modified_cam_clay</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1397897881407124</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2265550902484934</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1520399151017992</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F141" t="n">
-        <v>0.130040846261192</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1469453558094807</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1599005947627505</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1921854416687817</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells_stress</t>
+          <t>ConstitutiveModelsApplication_test_ConstitutiveModelsApplication</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1274491555311729</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2169658090493414</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1557034476841808</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1799544572146355</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1436502389755614</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6755976698040131</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1643637745889955</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2628143256286513</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>test_multipoint_contstraints</t>
+          <t>ConstitutiveModelsApplication_TestFactory</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H143" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>test_constitutive_law</t>
+          <t>convection_diffusion_application_source_term_test</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1295726086913196</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2223053264364602</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1589302817650852</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1841781335313817</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1463615097679712</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7005527173434335</v>
       </c>
       <c r="H144" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1679706728153579</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2707655539952377</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_small_strain</t>
+          <t>convection_diffusion_application_convection_diffusion_test_factory</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1311065391907701</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2259589411129119</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.16131758903831</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1872273184920013</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1483819081420354</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7192754327841789</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1705690019275935</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2764979421668716</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_large_strain</t>
+          <t>convection_diffusion_application_run_cpp_unit_tests</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1295726086913196</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2223053264364602</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1589302817650852</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1841781335313817</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1463615097679712</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7005527173434335</v>
       </c>
       <c r="H146" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1679706728153579</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2707655539952377</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>restart_tests</t>
+          <t>convection_diffusion_application_thermal_coupling_test</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.1397897881407124</v>
+        <v>0.1286795626576955</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2265550902484934</v>
+        <v>0.2201420226461061</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1520399151017992</v>
+        <v>0.1575508633901481</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0.1824112663779249</v>
       </c>
       <c r="F147" t="n">
-        <v>0.130040846261192</v>
+        <v>0.1451961393527202</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1469453558094807</v>
+        <v>0.6897452574525745</v>
       </c>
       <c r="H147" t="n">
-        <v>0.1599005947627505</v>
+        <v>0.1664613015017328</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1921854416687817</v>
+        <v>0.2674454667631552</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>test_mass_calculation</t>
+          <t>convection_diffusion_application_test_ConvectionDiffusionApplication</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.124764357974414</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2108839929190397</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.151584980001194</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1748581798716601</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1401289655248303</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7585040650406504</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1599501735907698</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.253588086816589</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>structural_mechanics_test_factory_mpi</t>
+          <t>ShallowWaterApplication_test_ShallowWaterApplication</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1124914061858166</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3435926279577769</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1334871231667394</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1522664378540865</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1245679477088395</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6081666000312896</v>
       </c>
       <c r="H149" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1402674077237904</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2138346589539648</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_surface</t>
+          <t>ShallowWaterApplication_SmallTests</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1263227448960753</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2145238352318739</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1539688701791845</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1778945480393004</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1421600102735328</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7807352350341502</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1625384764878098</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2591807084050032</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>test_postprocess_eigenvalues_process</t>
+          <t>ShallowWaterApplication_shallow_water_test_factory</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1263227448960753</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.2145238352318739</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1539688701791845</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1778945480393004</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1421600102735328</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.7807352350341502</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1625384764878098</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.2591807084050032</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>test_quadratic_elements</t>
+          <t>FluidDynamicsApplication_manufactured_solution_test</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I152" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>test_loading_conditions_line</t>
+          <t>FluidDynamicsApplication_navier_stokes_wall_condition_test</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H153" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>run_cpp_unit_tests</t>
+          <t>FluidDynamicsApplication_time_integrated_fluid_element_test</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I154" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>test_spring_damper_element</t>
+          <t>FluidDynamicsApplication_artificial_compressibility_test</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1397897881407124</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2265550902484934</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1520399151017992</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F155" t="n">
-        <v>0.130040846261192</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1469453558094807</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1599005947627505</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1921854416687817</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>structural_mechanics_test_factory</t>
+          <t>FluidDynamicsApplication_test_FluidDynamicsApplication</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1119554553434655</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3410699214438745</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1327130827256201</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1512975133816654</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1238963009062974</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6022809433637459</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1394301559493998</v>
       </c>
       <c r="I156" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2121796054474761</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_shells</t>
+          <t>FluidDynamicsApplication_embedded_reservoir_test</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I157" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>test_dynamic_schemes</t>
+          <t>FluidDynamicsApplication_darcy_channel_test</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H158" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>test_patch_test_formfinding</t>
+          <t>FluidDynamicsApplication_embedded_couette_test</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1448346884085595</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2375480978863704</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1566340822043103</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9282782482841281</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1343820887038626</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1524140884901753</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1661825276392803</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1998454220418115</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_linear_solvers</t>
+          <t>FluidDynamicsApplication_fluid_analysis_test</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H160" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I160" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>test_TrilinosApplication</t>
+          <t>FluidDynamicsApplication_volume_source_test</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1150969020539431</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3557185128007204</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1372612583407624</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1569174011067842</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1278388995078488</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.5476846273024617</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1443505449447266</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.2217928571428572</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>test_trilinos_matrix</t>
+          <t>FluidDynamicsApplication_embedded_couette_imposed_test</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I162" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>test_mpi_communicator</t>
+          <t>FluidDynamicsApplication_fluid_element_test</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.16131758903831</v>
+        <v>0.1130609371333212</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2764979421668716</v>
+        <v>0.3462217770103732</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1311065391907701</v>
+        <v>0.1343093402700674</v>
       </c>
       <c r="E163" t="n">
-        <v>0.7192754327841789</v>
+        <v>0.1532745671187585</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1483819081420354</v>
+        <v>0.1252814900040318</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1705690019275935</v>
+        <v>0.6143876932802992</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1872273184920013</v>
+        <v>0.1411564995973797</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2259589411129119</v>
+        <v>0.215555601835461</v>
       </c>
     </row>
   </sheetData>
